--- a/results/12-2022/contributions-comparison-12-2022.xlsx
+++ b/results/12-2022/contributions-comparison-12-2022.xlsx
@@ -607,7 +607,7 @@
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3" t="n">
-        <v>0.0068</v>
+        <v>0.0082</v>
       </c>
       <c r="K3" t="n">
         <v>0.0062</v>
@@ -771,10 +771,10 @@
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7" t="n">
-        <v>-0.0364</v>
+        <v>-0.0365</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.0353</v>
+        <v>-0.0354</v>
       </c>
       <c r="L7" t="n">
         <v>-0.0006</v>
@@ -786,16 +786,16 @@
         <v>-0.0074</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.0072</v>
+        <v>-0.0073</v>
       </c>
       <c r="P7" t="n">
         <v>-0.0179</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.0686</v>
+        <v>-0.0687</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.0298</v>
+        <v>-0.0299</v>
       </c>
     </row>
     <row r="8">
@@ -853,10 +853,10 @@
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9" t="n">
-        <v>-0.2155</v>
+        <v>-0.1777</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.3575</v>
+        <v>-0.4306</v>
       </c>
       <c r="L9" t="n">
         <v>-0.0642</v>
@@ -935,31 +935,31 @@
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11" t="n">
-        <v>-0.059</v>
+        <v>-0.0587</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0855</v>
+        <v>-0.0852</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0917</v>
+        <v>-0.0915</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.0763</v>
+        <v>-0.076</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.0728</v>
+        <v>-0.0726</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.0627</v>
+        <v>-0.0625</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.0494</v>
+        <v>-0.0492</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.0531</v>
+        <v>-0.0529</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.034</v>
+        <v>-0.0338</v>
       </c>
     </row>
     <row r="12">
@@ -1017,31 +1017,31 @@
       <c r="H13"/>
       <c r="I13"/>
       <c r="J13" t="n">
-        <v>-0.0582</v>
+        <v>-0.0735</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0688</v>
+        <v>-0.0839</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0785</v>
+        <v>0.0636</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.0216</v>
+        <v>-0.0358</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.022</v>
+        <v>-0.0213</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.0467</v>
+        <v>-0.0458</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.0716</v>
+        <v>-0.0706</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0343</v>
+        <v>0.0349</v>
       </c>
       <c r="R13" t="n">
-        <v>0.0328</v>
+        <v>0.0334</v>
       </c>
     </row>
     <row r="14">
@@ -1099,31 +1099,31 @@
       <c r="H15"/>
       <c r="I15"/>
       <c r="J15" t="n">
-        <v>-0.4981</v>
+        <v>-0.453</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.2469</v>
+        <v>-0.2229</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.0942</v>
+        <v>-0.0924</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.0797</v>
+        <v>-0.0679</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0171</v>
+        <v>0.0287</v>
       </c>
       <c r="O15" t="n">
-        <v>0.3157</v>
+        <v>0.3272</v>
       </c>
       <c r="P15" t="n">
-        <v>0.3096</v>
+        <v>0.321</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.3269</v>
+        <v>0.3382</v>
       </c>
       <c r="R15" t="n">
-        <v>0.3548</v>
+        <v>0.3453</v>
       </c>
     </row>
     <row r="16">
@@ -1181,28 +1181,28 @@
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17" t="n">
-        <v>-0.1017</v>
+        <v>-0.0907</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0591</v>
+        <v>-0.0624</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0386</v>
+        <v>-0.0388</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.0118</v>
+        <v>-0.0157</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.0177</v>
+        <v>-0.0178</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.0393</v>
+        <v>-0.0394</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.0343</v>
+        <v>-0.0344</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.0283</v>
+        <v>-0.0284</v>
       </c>
       <c r="R17" t="n">
         <v>-0.0189</v>
@@ -1263,19 +1263,19 @@
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19" t="n">
-        <v>-0.0924</v>
+        <v>-0.0927</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.0805</v>
+        <v>-0.0806</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.0937</v>
+        <v>-0.0939</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.0926</v>
+        <v>-0.0927</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.0816</v>
+        <v>-0.0817</v>
       </c>
       <c r="O19" t="n">
         <v>-0.0522</v>
@@ -1345,7 +1345,7 @@
       <c r="H21"/>
       <c r="I21"/>
       <c r="J21" t="n">
-        <v>0.0058</v>
+        <v>0.0071</v>
       </c>
       <c r="K21" t="n">
         <v>0.0054</v>
@@ -1427,16 +1427,16 @@
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23" t="n">
-        <v>-0.5856</v>
+        <v>-0.5943</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.1346</v>
+        <v>-0.1432</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0089</v>
+        <v>-0.0174</v>
       </c>
       <c r="M23" t="n">
-        <v>0.054</v>
+        <v>0.0456</v>
       </c>
       <c r="N23" t="n">
         <v>-0.0449</v>
@@ -1591,31 +1591,31 @@
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27" t="n">
-        <v>-0.0735</v>
+        <v>-0.0708</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.0583</v>
+        <v>-0.0589</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.5231</v>
+        <v>-0.5233</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.5714</v>
+        <v>-0.5717</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.2219</v>
+        <v>-0.2222</v>
       </c>
       <c r="O27" t="n">
-        <v>-0.1757</v>
+        <v>-0.1758</v>
       </c>
       <c r="P27" t="n">
-        <v>-0.3205</v>
+        <v>-0.3206</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.2398</v>
+        <v>-0.2399</v>
       </c>
       <c r="R27" t="n">
-        <v>-0.103</v>
+        <v>-0.1032</v>
       </c>
     </row>
     <row r="28">
@@ -1673,31 +1673,31 @@
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29" t="n">
-        <v>-0.3972</v>
+        <v>-0.3956</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.3915</v>
+        <v>-0.3902</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.2846</v>
+        <v>-0.2835</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.1296</v>
+        <v>-0.1285</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.0073</v>
+        <v>-0.0067</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.0012</v>
+        <v>-0.0009</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.0007</v>
+        <v>-0.0002</v>
       </c>
       <c r="Q29" t="n">
-        <v>-0.0003</v>
+        <v>0.0001</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="30">
@@ -1755,31 +1755,31 @@
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31" t="n">
-        <v>-2.104</v>
+        <v>-2.1018</v>
       </c>
       <c r="K31" t="n">
-        <v>-1.8317</v>
+        <v>-1.8326</v>
       </c>
       <c r="L31" t="n">
-        <v>-2.5298</v>
+        <v>-2.5519</v>
       </c>
       <c r="M31" t="n">
-        <v>-1.0486</v>
+        <v>-1.0643</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.4853</v>
+        <v>-0.4702</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.1832</v>
+        <v>-0.1682</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.3832</v>
+        <v>-0.368</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.3535</v>
+        <v>-0.3384</v>
       </c>
       <c r="R31" t="n">
-        <v>0.0013</v>
+        <v>-0.0074</v>
       </c>
     </row>
     <row r="32">
@@ -1919,10 +1919,10 @@
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35" t="n">
-        <v>-0.2535</v>
+        <v>-0.1803</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.3491</v>
+        <v>-0.4223</v>
       </c>
       <c r="L35" t="n">
         <v>-0.0362</v>
@@ -2247,10 +2247,10 @@
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43" t="n">
-        <v>0.2093</v>
+        <v>0.1361</v>
       </c>
       <c r="K43" t="n">
-        <v>0.2821</v>
+        <v>0.3552</v>
       </c>
       <c r="L43" t="n">
         <v>-0.0654</v>
@@ -2329,28 +2329,28 @@
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45" t="n">
-        <v>-0.0065</v>
+        <v>-0.0064</v>
       </c>
       <c r="K45" t="n">
         <v>-0.0082</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.0087</v>
+        <v>-0.0086</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.0002</v>
+        <v>-0.0001</v>
       </c>
       <c r="N45" t="n">
         <v>0.0022</v>
       </c>
       <c r="O45" t="n">
-        <v>0.0038</v>
+        <v>0.0039</v>
       </c>
       <c r="P45" t="n">
         <v>0.0046</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.0063</v>
+        <v>0.0064</v>
       </c>
       <c r="R45" t="n">
         <v>0.0133</v>
@@ -2411,31 +2411,31 @@
       <c r="H47"/>
       <c r="I47"/>
       <c r="J47" t="n">
-        <v>-0.0753</v>
+        <v>-0.0786</v>
       </c>
       <c r="K47" t="n">
-        <v>0.0081</v>
+        <v>0.0049</v>
       </c>
       <c r="L47" t="n">
-        <v>-0.0784</v>
+        <v>-0.0816</v>
       </c>
       <c r="M47" t="n">
-        <v>0.1289</v>
+        <v>0.1253</v>
       </c>
       <c r="N47" t="n">
-        <v>0.1114</v>
+        <v>0.111</v>
       </c>
       <c r="O47" t="n">
-        <v>0.0972</v>
+        <v>0.0968</v>
       </c>
       <c r="P47" t="n">
-        <v>0.0833</v>
+        <v>0.083</v>
       </c>
       <c r="Q47" t="n">
-        <v>-0.06</v>
+        <v>-0.0598</v>
       </c>
       <c r="R47" t="n">
-        <v>-0.048</v>
+        <v>-0.0478</v>
       </c>
     </row>
     <row r="48">
@@ -2493,28 +2493,28 @@
       <c r="H49"/>
       <c r="I49"/>
       <c r="J49" t="n">
-        <v>-0.0016</v>
+        <v>0.004</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.0099</v>
+        <v>-0.0043</v>
       </c>
       <c r="L49" t="n">
-        <v>0.0589</v>
+        <v>0.0616</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.002</v>
+        <v>0.0007</v>
       </c>
       <c r="N49" t="n">
-        <v>0.0168</v>
+        <v>0.0194</v>
       </c>
       <c r="O49" t="n">
-        <v>0.0049</v>
+        <v>0.0075</v>
       </c>
       <c r="P49" t="n">
-        <v>-0.0105</v>
+        <v>-0.0079</v>
       </c>
       <c r="Q49" t="n">
-        <v>-0.0177</v>
+        <v>-0.0151</v>
       </c>
       <c r="R49" t="n">
         <v>0.0032</v>
@@ -2824,13 +2824,13 @@
         <v>-0.0525</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.0402</v>
+        <v>-0.0403</v>
       </c>
       <c r="L57" t="n">
-        <v>-0.0273</v>
+        <v>-0.0274</v>
       </c>
       <c r="M57" t="n">
-        <v>-0.0162</v>
+        <v>-0.0163</v>
       </c>
       <c r="N57" t="n">
         <v>-0.007</v>
@@ -2903,7 +2903,7 @@
       <c r="H59"/>
       <c r="I59"/>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>0.0014</v>
       </c>
       <c r="K59" t="n">
         <v>0</v>
@@ -3067,10 +3067,10 @@
       <c r="H63"/>
       <c r="I63"/>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="R63" t="n">
         <v>0</v>
@@ -3149,10 +3149,10 @@
       <c r="H65"/>
       <c r="I65"/>
       <c r="J65" t="n">
-        <v>0.0002</v>
+        <v>0.038</v>
       </c>
       <c r="K65" t="n">
-        <v>0.0003</v>
+        <v>-0.0728</v>
       </c>
       <c r="L65" t="n">
         <v>0.0001</v>
@@ -3231,31 +3231,31 @@
       <c r="H67"/>
       <c r="I67"/>
       <c r="J67" t="n">
-        <v>-0.0031</v>
+        <v>-0.0029</v>
       </c>
       <c r="K67" t="n">
-        <v>-0.0031</v>
+        <v>-0.0029</v>
       </c>
       <c r="L67" t="n">
-        <v>-0.0032</v>
+        <v>-0.0029</v>
       </c>
       <c r="M67" t="n">
-        <v>-0.0032</v>
+        <v>-0.003</v>
       </c>
       <c r="N67" t="n">
-        <v>-0.0032</v>
+        <v>-0.003</v>
       </c>
       <c r="O67" t="n">
-        <v>-0.0032</v>
+        <v>-0.003</v>
       </c>
       <c r="P67" t="n">
-        <v>-0.0032</v>
+        <v>-0.0029</v>
       </c>
       <c r="Q67" t="n">
-        <v>-0.0031</v>
+        <v>-0.0029</v>
       </c>
       <c r="R67" t="n">
-        <v>-0.0031</v>
+        <v>-0.0029</v>
       </c>
     </row>
     <row r="68">
@@ -3313,31 +3313,31 @@
       <c r="H69"/>
       <c r="I69"/>
       <c r="J69" t="n">
-        <v>-0.0027</v>
+        <v>-0.0181</v>
       </c>
       <c r="K69" t="n">
-        <v>-0.0047</v>
+        <v>-0.0198</v>
       </c>
       <c r="L69" t="n">
-        <v>-0.0067</v>
+        <v>-0.0216</v>
       </c>
       <c r="M69" t="n">
-        <v>-0.0066</v>
+        <v>-0.0208</v>
       </c>
       <c r="N69" t="n">
-        <v>-0.0045</v>
+        <v>-0.0038</v>
       </c>
       <c r="O69" t="n">
-        <v>-0.0026</v>
+        <v>-0.0017</v>
       </c>
       <c r="P69" t="n">
-        <v>-0.0006</v>
+        <v>0.0004</v>
       </c>
       <c r="Q69" t="n">
-        <v>0</v>
+        <v>0.0006</v>
       </c>
       <c r="R69" t="n">
-        <v>0.0001</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="70">
@@ -3395,31 +3395,31 @@
       <c r="H71"/>
       <c r="I71"/>
       <c r="J71" t="n">
-        <v>0.0112</v>
+        <v>0.0563</v>
       </c>
       <c r="K71" t="n">
-        <v>0.0054</v>
+        <v>0.0294</v>
       </c>
       <c r="L71" t="n">
-        <v>0.0051</v>
+        <v>0.007</v>
       </c>
       <c r="M71" t="n">
-        <v>0.005</v>
+        <v>0.0168</v>
       </c>
       <c r="N71" t="n">
-        <v>0.0048</v>
+        <v>0.0164</v>
       </c>
       <c r="O71" t="n">
-        <v>0.0044</v>
+        <v>0.0159</v>
       </c>
       <c r="P71" t="n">
-        <v>0.0043</v>
+        <v>0.0157</v>
       </c>
       <c r="Q71" t="n">
-        <v>-0.0008</v>
+        <v>0.0105</v>
       </c>
       <c r="R71" t="n">
-        <v>-0.0008</v>
+        <v>-0.0104</v>
       </c>
     </row>
     <row r="72">
@@ -3477,19 +3477,19 @@
       <c r="H73"/>
       <c r="I73"/>
       <c r="J73" t="n">
-        <v>0.0001</v>
+        <v>0.0111</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>-0.0032</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="M73" t="n">
-        <v>0</v>
+        <v>-0.0039</v>
       </c>
       <c r="N73" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="O73" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
       <c r="H75"/>
       <c r="I75"/>
       <c r="J75" t="n">
-        <v>0.0001</v>
+        <v>-0.0002</v>
       </c>
       <c r="K75" t="n">
-        <v>0.0001</v>
+        <v>-0.0001</v>
       </c>
       <c r="L75" t="n">
-        <v>0.0001</v>
+        <v>-0.0001</v>
       </c>
       <c r="M75" t="n">
-        <v>0.0001</v>
+        <v>-0.0001</v>
       </c>
       <c r="N75" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="O75" t="n">
         <v>0</v>
@@ -3641,7 +3641,7 @@
       <c r="H77"/>
       <c r="I77"/>
       <c r="J77" t="n">
-        <v>0</v>
+        <v>0.0014</v>
       </c>
       <c r="K77" t="n">
         <v>0</v>
@@ -3723,16 +3723,16 @@
       <c r="H79"/>
       <c r="I79"/>
       <c r="J79" t="n">
-        <v>-0.0055</v>
+        <v>-0.0142</v>
       </c>
       <c r="K79" t="n">
-        <v>-0.0054</v>
+        <v>-0.014</v>
       </c>
       <c r="L79" t="n">
-        <v>-0.0054</v>
+        <v>-0.0139</v>
       </c>
       <c r="M79" t="n">
-        <v>-0.0001</v>
+        <v>-0.0085</v>
       </c>
       <c r="N79" t="n">
         <v>0.0006</v>
@@ -3887,31 +3887,31 @@
       <c r="H83"/>
       <c r="I83"/>
       <c r="J83" t="n">
-        <v>0</v>
+        <v>0.0027</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="L83" t="n">
-        <v>0.0005</v>
+        <v>0.0002</v>
       </c>
       <c r="M83" t="n">
-        <v>0.0005</v>
+        <v>0.0003</v>
       </c>
       <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="P83" t="n">
         <v>0.0002</v>
       </c>
-      <c r="O83" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="P83" t="n">
-        <v>0.0003</v>
-      </c>
       <c r="Q83" t="n">
-        <v>0.0002</v>
+        <v>0.0001</v>
       </c>
       <c r="R83" t="n">
-        <v>0.0001</v>
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="84">
@@ -3969,31 +3969,31 @@
       <c r="H85"/>
       <c r="I85"/>
       <c r="J85" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.0017</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.0014</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.0006</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="Q85" t="n">
         <v>0.0004</v>
       </c>
-      <c r="K85" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="L85" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="M85" t="n">
+      <c r="R85" t="n">
         <v>0.0001</v>
-      </c>
-      <c r="N85" t="n">
-        <v>0</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0</v>
-      </c>
-      <c r="P85" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>0</v>
-      </c>
-      <c r="R85" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4051,31 +4051,31 @@
       <c r="H87"/>
       <c r="I87"/>
       <c r="J87" t="n">
-        <v>0.0195</v>
+        <v>0.0217</v>
       </c>
       <c r="K87" t="n">
-        <v>-0.005</v>
+        <v>-0.0059</v>
       </c>
       <c r="L87" t="n">
-        <v>-0.0069</v>
+        <v>-0.029</v>
       </c>
       <c r="M87" t="n">
-        <v>0.0084</v>
+        <v>-0.0072</v>
       </c>
       <c r="N87" t="n">
-        <v>0.0111</v>
+        <v>0.0262</v>
       </c>
       <c r="O87" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0.0309</v>
+      </c>
+      <c r="Q87" t="n">
         <v>0.013</v>
       </c>
-      <c r="P87" t="n">
-        <v>0.0158</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>-0.0022</v>
-      </c>
       <c r="R87" t="n">
-        <v>-0.0024</v>
+        <v>-0.0111</v>
       </c>
     </row>
     <row r="88">
@@ -4215,10 +4215,10 @@
       <c r="H91"/>
       <c r="I91"/>
       <c r="J91" t="n">
-        <v>0.0002</v>
+        <v>0.0735</v>
       </c>
       <c r="K91" t="n">
-        <v>0.0003</v>
+        <v>-0.0728</v>
       </c>
       <c r="L91" t="n">
         <v>0</v>
@@ -4543,10 +4543,10 @@
       <c r="H99"/>
       <c r="I99"/>
       <c r="J99" t="n">
-        <v>-0.0003</v>
+        <v>-0.0735</v>
       </c>
       <c r="K99" t="n">
-        <v>-0.0004</v>
+        <v>0.0727</v>
       </c>
       <c r="L99" t="n">
         <v>-0.0002</v>
@@ -4625,31 +4625,31 @@
       <c r="H101"/>
       <c r="I101"/>
       <c r="J101" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="K101" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="L101" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="M101" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="N101" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="O101" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="P101" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="Q101" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="R101" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="102">
@@ -4707,31 +4707,31 @@
       <c r="H103"/>
       <c r="I103"/>
       <c r="J103" t="n">
-        <v>-0.0142</v>
+        <v>-0.0175</v>
       </c>
       <c r="K103" t="n">
-        <v>-0.0146</v>
+        <v>-0.0179</v>
       </c>
       <c r="L103" t="n">
-        <v>-0.0149</v>
+        <v>-0.0181</v>
       </c>
       <c r="M103" t="n">
-        <v>-0.0035</v>
+        <v>-0.0071</v>
       </c>
       <c r="N103" t="n">
-        <v>-0.0026</v>
+        <v>-0.003</v>
       </c>
       <c r="O103" t="n">
-        <v>-0.0017</v>
+        <v>-0.0021</v>
       </c>
       <c r="P103" t="n">
-        <v>-0.0009</v>
+        <v>-0.0012</v>
       </c>
       <c r="Q103" t="n">
-        <v>0.0012</v>
+        <v>0.0015</v>
       </c>
       <c r="R103" t="n">
-        <v>0.0011</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="104">
@@ -4789,28 +4789,28 @@
       <c r="H105"/>
       <c r="I105"/>
       <c r="J105" t="n">
-        <v>0.0333</v>
+        <v>0.0389</v>
       </c>
       <c r="K105" t="n">
-        <v>0.0165</v>
+        <v>0.022</v>
       </c>
       <c r="L105" t="n">
-        <v>0.0162</v>
+        <v>0.019</v>
       </c>
       <c r="M105" t="n">
-        <v>0.0161</v>
+        <v>0.0188</v>
       </c>
       <c r="N105" t="n">
-        <v>0.0159</v>
+        <v>0.0186</v>
       </c>
       <c r="O105" t="n">
-        <v>0.0158</v>
+        <v>0.0184</v>
       </c>
       <c r="P105" t="n">
-        <v>0.0156</v>
+        <v>0.0183</v>
       </c>
       <c r="Q105" t="n">
-        <v>0.0001</v>
+        <v>0.0027</v>
       </c>
       <c r="R105" t="n">
         <v>0</v>
